--- a/statistic_info_hete_datasets.xlsx
+++ b/statistic_info_hete_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiang.zhong\PhD_UL\PhD_Project\coarsening-disassortative-graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D84F75-0B64-40E6-BF4D-E97FBC691227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECE0D6-590D-4A40-A048-6F257FACBC85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{3BD7E531-4CDA-40A9-9528-C404C0AADB91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -94,13 +94,40 @@
   </si>
   <si>
     <t># edge attributes</t>
+  </si>
+  <si>
+    <t>DiffPool</t>
+  </si>
+  <si>
+    <t>MincutPool</t>
+  </si>
+  <si>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>from paper (ref. Mincut)</t>
+  </si>
+  <si>
+    <t>node clustering performance (NMI)</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Citeseer</t>
+  </si>
+  <si>
+    <t>Pubmed</t>
+  </si>
+  <si>
+    <t>OOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +144,22 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,13 +186,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,440 +518,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40115779-E315-4549-B12D-99D51145727F}">
-  <dimension ref="K9:R24"/>
+  <dimension ref="B9:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.140625" customWidth="1"/>
     <col min="17" max="18" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="11:18" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+    <row r="9" spans="2:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K10" s="2" t="s">
+      <c r="J11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="1">
+      <c r="C12" s="1">
         <v>11701</v>
       </c>
-      <c r="M10" s="1">
+      <c r="D12" s="1">
         <v>297110</v>
       </c>
-      <c r="N10" s="1">
+      <c r="E12" s="1">
         <v>300</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="Q10">
+      <c r="H12">
         <v>0.69199999999999995</v>
       </c>
-      <c r="R10">
+      <c r="I12">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="11" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K11" s="2" t="s">
+      <c r="K12">
+        <v>0.2762</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="1">
+      <c r="C13" s="1">
         <v>183</v>
       </c>
-      <c r="M11" s="1">
+      <c r="D13" s="1">
         <v>298</v>
       </c>
-      <c r="N11" s="1">
+      <c r="E13" s="1">
         <v>1703</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="Q11">
+      <c r="H13">
         <v>0.30499999999999999</v>
       </c>
-      <c r="R11">
+      <c r="I13">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K12" s="2" t="s">
+      <c r="K13">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="1">
+      <c r="C14" s="1">
         <v>183</v>
       </c>
-      <c r="M12" s="1">
+      <c r="D14" s="1">
         <v>325</v>
       </c>
-      <c r="N12" s="1">
+      <c r="E14" s="1">
         <v>1703</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="Q12">
+      <c r="H14">
         <v>0.108</v>
       </c>
-      <c r="R12">
+      <c r="I14">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K13" s="2" t="s">
+      <c r="K14">
+        <v>0.10009999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="1">
+      <c r="C15" s="1">
         <v>251</v>
       </c>
-      <c r="M13" s="1">
+      <c r="D15" s="1">
         <v>515</v>
       </c>
-      <c r="N13" s="1">
+      <c r="E15" s="1">
         <v>1703</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="Q13">
+      <c r="H15">
         <v>0.19600000000000001</v>
       </c>
-      <c r="R13">
+      <c r="I15">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K14" s="2" t="s">
+      <c r="K15">
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="1">
+      <c r="C16" s="1">
         <v>2277</v>
       </c>
-      <c r="M14" s="1">
+      <c r="D16" s="1">
         <v>72202</v>
       </c>
-      <c r="N14" s="1">
+      <c r="E16" s="1">
         <v>128</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="H16">
         <v>0.23300000000000001</v>
       </c>
-      <c r="R14">
+      <c r="I16">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="15" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K15" s="2" t="s">
+      <c r="K16">
+        <v>9.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="1">
+      <c r="C17" s="1">
         <v>5201</v>
       </c>
-      <c r="M15" s="1">
+      <c r="D17" s="1">
         <v>434146</v>
       </c>
-      <c r="N15" s="1">
+      <c r="E17" s="1">
         <v>128</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="Q15">
+      <c r="H17">
         <v>0.224</v>
       </c>
-      <c r="R15">
+      <c r="I17">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="16" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K16" s="2" t="s">
+      <c r="K17">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="1">
+      <c r="C18" s="1">
         <v>11631</v>
       </c>
-      <c r="M16" s="1">
+      <c r="D18" s="1">
         <v>360040</v>
       </c>
-      <c r="N16" s="1">
+      <c r="E18" s="1">
         <v>128</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="Q16">
+      <c r="H18">
         <v>0.247</v>
       </c>
-      <c r="R16">
+      <c r="I18">
         <v>0.29799999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K17" s="2" t="s">
+      <c r="K18">
+        <v>0.16919999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="1">
+      <c r="C19" s="1">
         <v>7600</v>
       </c>
-      <c r="M17" s="1">
+      <c r="D19" s="1">
         <v>30019</v>
       </c>
-      <c r="N17" s="1">
+      <c r="E19" s="1">
         <v>932</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="Q17">
+      <c r="H19">
         <v>0.219</v>
       </c>
-      <c r="R17">
+      <c r="I19">
         <v>0.159</v>
       </c>
-    </row>
-    <row r="18" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="2" t="s">
+      <c r="K19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="1">
+      <c r="C20" s="1">
         <v>28281</v>
       </c>
-      <c r="M18" s="1">
+      <c r="D20" s="1">
         <v>185504</v>
       </c>
-      <c r="N18" s="1">
+      <c r="E20" s="1">
         <v>128</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="H20">
         <v>0.52500000000000002</v>
       </c>
-      <c r="R18">
+      <c r="I20">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="19" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="2" t="s">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="1">
+      <c r="C21" s="1">
         <v>9498</v>
       </c>
-      <c r="M19" s="1">
+      <c r="D21" s="1">
         <v>315774</v>
       </c>
-      <c r="N19" s="1">
+      <c r="E21" s="1">
         <v>128</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="H21">
         <v>0.64300000000000002</v>
       </c>
-      <c r="R19">
+      <c r="I21">
         <v>0.64300000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="2" t="s">
+      <c r="K21">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="1">
+      <c r="C22" s="1">
         <v>7126</v>
       </c>
-      <c r="M20" s="1">
+      <c r="D22" s="1">
         <v>77774</v>
       </c>
-      <c r="N20" s="1">
+      <c r="E22" s="1">
         <v>128</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="Q20">
+      <c r="H22">
         <v>0.59699999999999998</v>
       </c>
-      <c r="R20">
+      <c r="I22">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="2" t="s">
+      <c r="K22">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="1">
+      <c r="C23" s="1">
         <v>4648</v>
       </c>
-      <c r="M21" s="1">
+      <c r="D23" s="1">
         <v>123412</v>
       </c>
-      <c r="N21" s="1">
+      <c r="E23" s="1">
         <v>128</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="H23">
         <v>0.59599999999999997</v>
       </c>
-      <c r="R21">
+      <c r="I23">
         <v>0.66200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="2" t="s">
+      <c r="K23">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="1">
+      <c r="C24" s="1">
         <v>6551</v>
       </c>
-      <c r="M22" s="1">
+      <c r="D24" s="1">
         <v>231883</v>
       </c>
-      <c r="N22" s="1">
+      <c r="E24" s="1">
         <v>128</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="Q22">
+      <c r="H24">
         <v>0.54500000000000004</v>
       </c>
-      <c r="R22">
+      <c r="I24">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="2" t="s">
+      <c r="K24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="1">
+      <c r="C25" s="1">
         <v>1912</v>
       </c>
-      <c r="M23" s="1">
+      <c r="D25" s="1">
         <v>64510</v>
       </c>
-      <c r="N23" s="1">
+      <c r="E25" s="1">
         <v>128</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="Q23">
+      <c r="H25">
         <v>0.58399999999999996</v>
       </c>
-      <c r="R23">
+      <c r="I25">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="2" t="s">
+      <c r="K25">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="1">
+      <c r="C26" s="1">
         <v>4385</v>
       </c>
-      <c r="M24" s="1">
+      <c r="D26" s="1">
         <v>78993</v>
       </c>
-      <c r="N24" s="1">
+      <c r="E26" s="1">
         <v>128</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="H26">
         <v>0.63900000000000001</v>
       </c>
-      <c r="R24">
+      <c r="I26">
         <v>0.69399999999999995</v>
       </c>
+      <c r="K26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2708</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10556</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1433</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.2641</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3327</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9104</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3703</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>19717</v>
+      </c>
+      <c r="D30" s="1">
+        <v>88648</v>
+      </c>
+      <c r="E30" s="1">
+        <v>500</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J9:M9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/statistic_info_hete_datasets.xlsx
+++ b/statistic_info_hete_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiang.zhong\PhD_UL\PhD_Project\coarsening-disassortative-graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ECE0D6-590D-4A40-A048-6F257FACBC85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4265DB-D8EB-4737-86E0-03DDFB0387AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{3BD7E531-4CDA-40A9-9528-C404C0AADB91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Dataset</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>OOM</t>
+  </si>
+  <si>
+    <t>h_degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +168,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,23 +195,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,81 +536,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40115779-E315-4549-B12D-99D51145727F}">
-  <dimension ref="B9:M30"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B9:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="18" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J9" s="5" t="s">
+    <row r="9" spans="2:14" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="4" t="s">
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -617,11 +640,17 @@
       <c r="I12">
         <v>0.622</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="9">
+        <v>0.107</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
         <v>0.2762</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -646,11 +675,17 @@
       <c r="I13">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="9">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
         <v>6.9800000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
@@ -675,11 +710,17 @@
       <c r="I14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="9">
+        <v>-0.3463</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
         <v>0.10009999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
@@ -704,11 +745,17 @@
       <c r="I15">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="9">
+        <v>-0.2883</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9">
         <v>9.7199999999999995E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -733,11 +780,17 @@
       <c r="I16">
         <v>0.246</v>
       </c>
-      <c r="K16">
+      <c r="J16" s="9">
+        <v>-5.2400000000000002E-2</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>9.8400000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -762,11 +815,17 @@
       <c r="I17">
         <v>0.221</v>
       </c>
-      <c r="K17">
+      <c r="J17" s="9">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -791,11 +850,17 @@
       <c r="I18">
         <v>0.29799999999999999</v>
       </c>
-      <c r="K18">
+      <c r="J18" s="9">
+        <v>-0.1181</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
         <v>0.16919999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
@@ -820,11 +885,17 @@
       <c r="I19">
         <v>0.159</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="9">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
@@ -849,11 +920,17 @@
       <c r="I20">
         <v>0.53</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" s="9">
+        <v>0.1399</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
@@ -878,11 +955,17 @@
       <c r="I21">
         <v>0.64300000000000002</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="9">
+        <v>-3.95E-2</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
         <v>4.7300000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
@@ -907,11 +990,17 @@
       <c r="I22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="9">
+        <v>-2.2700000000000001E-2</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
@@ -936,11 +1025,17 @@
       <c r="I23">
         <v>0.66200000000000003</v>
       </c>
-      <c r="K23">
+      <c r="J23" s="9">
+        <v>-0.13289999999999999</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
@@ -965,11 +1060,17 @@
       <c r="I24">
         <v>0.57899999999999996</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="9">
+        <v>-0.107</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -994,11 +1095,17 @@
       <c r="I25">
         <v>0.63400000000000001</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="9">
+        <v>-0.13469999999999999</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
         <v>3.2399999999999998E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1023,11 +1130,24 @@
       <c r="I26">
         <v>0.69399999999999995</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="9">
+        <v>-6.3200000000000006E-2</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1052,20 +1172,23 @@
       <c r="I28" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="9">
+        <v>-6.9099999999999995E-2</v>
+      </c>
+      <c r="K28" s="10">
         <v>0.2641</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="10">
         <v>0.41620000000000001</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="10">
         <v>0.315</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="10">
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1090,20 +1213,23 @@
       <c r="I29" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="9">
+        <v>0.1847</v>
+      </c>
+      <c r="K29" s="10">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="10">
         <v>0.27400000000000002</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="10">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1128,24 +1254,30 @@
       <c r="I30" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="9">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="10">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/statistic_info_hete_datasets.xlsx
+++ b/statistic_info_hete_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiqiang.zhong\PhD_UL\PhD_Project\coarsening-disassortative-graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4265DB-D8EB-4737-86E0-03DDFB0387AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21984A6-1677-4C26-8E1E-6FFD710D6E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{3BD7E531-4CDA-40A9-9528-C404C0AADB91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Dataset</t>
   </si>
@@ -204,6 +204,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,15 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,11 +540,19 @@
   <dimension ref="B9:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
@@ -557,22 +565,22 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:14" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -640,15 +648,15 @@
       <c r="I12">
         <v>0.622</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>0.107</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>0.2762</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -675,15 +683,15 @@
       <c r="I13">
         <v>0.21199999999999999</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>-2.7E-2</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -710,15 +718,15 @@
       <c r="I14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>-0.3463</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>0.10009999999999999</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -745,15 +753,15 @@
       <c r="I15">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>-0.2883</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -780,15 +788,15 @@
       <c r="I16">
         <v>0.246</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>-5.2400000000000002E-2</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -815,15 +823,15 @@
       <c r="I17">
         <v>0.221</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -850,15 +858,15 @@
       <c r="I18">
         <v>0.29799999999999999</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>-0.1181</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>0.16919999999999999</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -885,15 +893,15 @@
       <c r="I19">
         <v>0.159</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -920,15 +928,15 @@
       <c r="I20">
         <v>0.53</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>0.1399</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -955,15 +963,15 @@
       <c r="I21">
         <v>0.64300000000000002</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="6">
         <v>-3.95E-2</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -990,15 +998,15 @@
       <c r="I22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="6">
         <v>-2.2700000000000001E-2</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>8.6E-3</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -1025,15 +1033,15 @@
       <c r="I23">
         <v>0.66200000000000003</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="6">
         <v>-0.13289999999999999</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>0.03</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
@@ -1060,15 +1068,15 @@
       <c r="I24">
         <v>0.57899999999999996</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="6">
         <v>-0.107</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1E-4</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -1095,15 +1103,15 @@
       <c r="I25">
         <v>0.63400000000000001</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="6">
         <v>-0.13469999999999999</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -1130,22 +1138,22 @@
       <c r="I26">
         <v>0.69399999999999995</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>-6.3200000000000006E-2</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -1172,19 +1180,19 @@
       <c r="I28" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>-6.9099999999999995E-2</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="7">
         <v>0.2641</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="7">
         <v>0.41620000000000001</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="7">
         <v>0.315</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="7">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -1213,19 +1221,19 @@
       <c r="I29" s="1">
         <v>0.70599999999999996</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>0.1847</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="7">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="7">
         <v>0.27400000000000002</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="7">
         <v>0.13900000000000001</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="7">
         <v>0.28699999999999998</v>
       </c>
     </row>
@@ -1254,24 +1262,24 @@
       <c r="I30" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="10">
+      <c r="L30" s="6">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="M30" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="11"/>
+      <c r="I40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
